--- a/Light配置.xlsx
+++ b/Light配置.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="21">
   <si>
     <t>笏 (しゃく)</t>
     <rPh sb="0" eb="1">
@@ -134,10 +134,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Parts</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -151,6 +147,14 @@
   </si>
   <si>
     <t>Face</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hard id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Soft Id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -502,26 +506,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I132"/>
+  <dimension ref="A2:J132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D116" sqref="D113:D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -531,22 +538,26 @@
       <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
+        <f>C3-1</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
         <f>IF(B3="blank",1,0)</f>
         <v>0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <f>MAX(C3:C132)</f>
         <v>130</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -556,22 +567,26 @@
       <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D67" si="0">IF(B4="blank",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D67" si="0">C4-1</f>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E67" si="1">IF(B4="blank",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="G4">
-        <f>SUM(D3:D132)</f>
+      <c r="H4">
+        <f>SUM(E3:E132)</f>
         <v>34</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -581,22 +596,26 @@
       <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="G5">
-        <f>G3-G4</f>
+      <c r="H5">
+        <f>H3-H4</f>
         <v>96</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -606,12 +625,16 @@
       <c r="C6" s="3">
         <v>4</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -621,12 +644,16 @@
       <c r="C7" s="3">
         <v>5</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -636,12 +663,16 @@
       <c r="C8" s="2">
         <v>6</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -651,12 +682,16 @@
       <c r="C9" s="2">
         <v>7</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -666,12 +701,16 @@
       <c r="C10" s="2">
         <v>8</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -681,12 +720,16 @@
       <c r="C11" s="2">
         <v>9</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -696,12 +739,16 @@
       <c r="C12" s="2">
         <v>10</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -711,12 +758,16 @@
       <c r="C13" s="2">
         <v>11</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -726,12 +777,16 @@
       <c r="C14" s="2">
         <v>12</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>10</v>
@@ -739,12 +794,16 @@
       <c r="C15" s="1">
         <v>13</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>3</v>
       </c>
@@ -754,12 +813,16 @@
       <c r="C16" s="2">
         <v>14</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>3</v>
       </c>
@@ -769,12 +832,16 @@
       <c r="C17" s="2">
         <v>15</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>3</v>
       </c>
@@ -784,12 +851,16 @@
       <c r="C18" s="2">
         <v>16</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>3</v>
       </c>
@@ -799,12 +870,16 @@
       <c r="C19" s="2">
         <v>17</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>3</v>
       </c>
@@ -814,12 +889,16 @@
       <c r="C20" s="2">
         <v>18</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>3</v>
       </c>
@@ -829,12 +908,16 @@
       <c r="C21" s="2">
         <v>19</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>3</v>
       </c>
@@ -844,12 +927,16 @@
       <c r="C22" s="2">
         <v>20</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>3</v>
       </c>
@@ -859,12 +946,16 @@
       <c r="C23" s="2">
         <v>21</v>
       </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>3</v>
       </c>
@@ -874,12 +965,16 @@
       <c r="C24" s="2">
         <v>22</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>4</v>
       </c>
@@ -889,12 +984,16 @@
       <c r="C25" s="3">
         <v>23</v>
       </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>4</v>
       </c>
@@ -904,12 +1003,16 @@
       <c r="C26" s="3">
         <v>24</v>
       </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>5</v>
       </c>
@@ -919,12 +1022,16 @@
       <c r="C27" s="4">
         <v>25</v>
       </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>5</v>
       </c>
@@ -934,12 +1041,16 @@
       <c r="C28" s="4">
         <v>26</v>
       </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>5</v>
       </c>
@@ -949,12 +1060,16 @@
       <c r="C29" s="4">
         <v>27</v>
       </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>5</v>
       </c>
@@ -964,12 +1079,16 @@
       <c r="C30" s="4">
         <v>28</v>
       </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>5</v>
       </c>
@@ -979,12 +1098,16 @@
       <c r="C31" s="4">
         <v>29</v>
       </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>5</v>
       </c>
@@ -994,12 +1117,16 @@
       <c r="C32" s="4">
         <v>30</v>
       </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>5</v>
       </c>
@@ -1009,12 +1136,16 @@
       <c r="C33" s="4">
         <v>31</v>
       </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>5</v>
       </c>
@@ -1024,12 +1155,16 @@
       <c r="C34" s="4">
         <v>32</v>
       </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>5</v>
       </c>
@@ -1039,12 +1174,16 @@
       <c r="C35" s="4">
         <v>33</v>
       </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>5</v>
       </c>
@@ -1054,12 +1193,16 @@
       <c r="C36" s="4">
         <v>34</v>
       </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="4">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>6</v>
       </c>
@@ -1069,12 +1212,16 @@
       <c r="C37" s="3">
         <v>35</v>
       </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="3">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>6</v>
       </c>
@@ -1084,12 +1231,16 @@
       <c r="C38" s="3">
         <v>36</v>
       </c>
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>6</v>
       </c>
@@ -1099,12 +1250,16 @@
       <c r="C39" s="3">
         <v>37</v>
       </c>
-      <c r="D39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D39" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>8</v>
       </c>
@@ -1114,12 +1269,16 @@
       <c r="C40" s="3">
         <v>38</v>
       </c>
-      <c r="D40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D40" s="3">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>8</v>
       </c>
@@ -1129,12 +1288,16 @@
       <c r="C41" s="3">
         <v>39</v>
       </c>
-      <c r="D41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D41" s="3">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>8</v>
       </c>
@@ -1144,12 +1307,16 @@
       <c r="C42" s="3">
         <v>40</v>
       </c>
-      <c r="D42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D42" s="3">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>8</v>
       </c>
@@ -1159,12 +1326,16 @@
       <c r="C43" s="3">
         <v>41</v>
       </c>
-      <c r="D43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D43" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>8</v>
       </c>
@@ -1174,12 +1345,16 @@
       <c r="C44" s="3">
         <v>42</v>
       </c>
-      <c r="D44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="3">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>9</v>
       </c>
@@ -1189,12 +1364,16 @@
       <c r="C45" s="2">
         <v>43</v>
       </c>
-      <c r="D45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>9</v>
       </c>
@@ -1204,12 +1383,16 @@
       <c r="C46" s="2">
         <v>44</v>
       </c>
-      <c r="D46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D46" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>9</v>
       </c>
@@ -1219,12 +1402,16 @@
       <c r="C47" s="2">
         <v>45</v>
       </c>
-      <c r="D47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D47" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>9</v>
       </c>
@@ -1234,12 +1421,16 @@
       <c r="C48" s="2">
         <v>46</v>
       </c>
-      <c r="D48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D48" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>9</v>
       </c>
@@ -1249,12 +1440,16 @@
       <c r="C49" s="2">
         <v>47</v>
       </c>
-      <c r="D49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>9</v>
       </c>
@@ -1264,12 +1459,16 @@
       <c r="C50" s="2">
         <v>48</v>
       </c>
-      <c r="D50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>9</v>
       </c>
@@ -1279,12 +1478,16 @@
       <c r="C51" s="2">
         <v>49</v>
       </c>
-      <c r="D51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>9</v>
       </c>
@@ -1294,12 +1497,16 @@
       <c r="C52" s="2">
         <v>50</v>
       </c>
-      <c r="D52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D52" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>9</v>
       </c>
@@ -1309,12 +1516,16 @@
       <c r="C53" s="2">
         <v>51</v>
       </c>
-      <c r="D53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D53" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>9</v>
       </c>
@@ -1324,12 +1535,16 @@
       <c r="C54" s="2">
         <v>52</v>
       </c>
-      <c r="D54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D54" s="2">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>9</v>
       </c>
@@ -1339,12 +1554,16 @@
       <c r="C55" s="2">
         <v>53</v>
       </c>
-      <c r="D55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="2">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>9</v>
       </c>
@@ -1354,12 +1573,16 @@
       <c r="C56" s="2">
         <v>54</v>
       </c>
-      <c r="D56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D56" s="2">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>9</v>
       </c>
@@ -1369,12 +1592,16 @@
       <c r="C57" s="2">
         <v>55</v>
       </c>
-      <c r="D57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D57" s="2">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>9</v>
       </c>
@@ -1384,12 +1611,16 @@
       <c r="C58" s="2">
         <v>56</v>
       </c>
-      <c r="D58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D58" s="2">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>10</v>
@@ -1397,12 +1628,16 @@
       <c r="C59" s="1">
         <v>57</v>
       </c>
-      <c r="D59">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D59" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>10</v>
@@ -1410,12 +1645,16 @@
       <c r="C60" s="1">
         <v>58</v>
       </c>
-      <c r="D60">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D60" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>10</v>
@@ -1423,12 +1662,16 @@
       <c r="C61" s="1">
         <v>59</v>
       </c>
-      <c r="D61">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D61" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>10</v>
@@ -1436,12 +1679,16 @@
       <c r="C62" s="1">
         <v>60</v>
       </c>
-      <c r="D62">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D62" s="1">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>7</v>
       </c>
@@ -1451,12 +1698,16 @@
       <c r="C63" s="2">
         <v>61</v>
       </c>
-      <c r="D63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D63" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>7</v>
       </c>
@@ -1466,12 +1717,16 @@
       <c r="C64" s="2">
         <v>62</v>
       </c>
-      <c r="D64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D64" s="2">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>7</v>
       </c>
@@ -1481,12 +1736,16 @@
       <c r="C65" s="2">
         <v>63</v>
       </c>
-      <c r="D65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D65" s="2">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>7</v>
       </c>
@@ -1496,12 +1755,16 @@
       <c r="C66" s="2">
         <v>64</v>
       </c>
-      <c r="D66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D66" s="2">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>7</v>
       </c>
@@ -1511,12 +1774,16 @@
       <c r="C67" s="2">
         <v>65</v>
       </c>
-      <c r="D67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D67" s="2">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>7</v>
       </c>
@@ -1526,12 +1793,16 @@
       <c r="C68" s="2">
         <v>66</v>
       </c>
-      <c r="D68">
-        <f t="shared" ref="D68:D131" si="1">IF(B68="blank",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D68" s="2">
+        <f t="shared" ref="D68:D131" si="2">C68-1</f>
+        <v>65</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ref="E68:E131" si="3">IF(B68="blank",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>7</v>
       </c>
@@ -1541,12 +1812,16 @@
       <c r="C69" s="2">
         <v>67</v>
       </c>
-      <c r="D69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D69" s="2">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>7</v>
       </c>
@@ -1556,12 +1831,16 @@
       <c r="C70" s="2">
         <v>68</v>
       </c>
-      <c r="D70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D70" s="2">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>8</v>
       </c>
@@ -1571,12 +1850,16 @@
       <c r="C71" s="3">
         <v>69</v>
       </c>
-      <c r="D71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D71" s="3">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>8</v>
       </c>
@@ -1586,12 +1869,16 @@
       <c r="C72" s="3">
         <v>70</v>
       </c>
-      <c r="D72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D72" s="3">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>8</v>
       </c>
@@ -1601,12 +1888,16 @@
       <c r="C73" s="3">
         <v>71</v>
       </c>
-      <c r="D73">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D73" s="3">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>8</v>
       </c>
@@ -1616,12 +1907,16 @@
       <c r="C74" s="3">
         <v>72</v>
       </c>
-      <c r="D74">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D74" s="3">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>8</v>
       </c>
@@ -1631,12 +1926,16 @@
       <c r="C75" s="3">
         <v>73</v>
       </c>
-      <c r="D75">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D75" s="3">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
         <v>10</v>
@@ -1644,12 +1943,16 @@
       <c r="C76" s="1">
         <v>74</v>
       </c>
-      <c r="D76">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D76" s="1">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
         <v>10</v>
@@ -1657,12 +1960,16 @@
       <c r="C77" s="1">
         <v>75</v>
       </c>
-      <c r="D77">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D77" s="1">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
         <v>10</v>
@@ -1670,12 +1977,16 @@
       <c r="C78" s="1">
         <v>76</v>
       </c>
-      <c r="D78">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D78" s="1">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
         <v>10</v>
@@ -1683,12 +1994,16 @@
       <c r="C79" s="1">
         <v>77</v>
       </c>
-      <c r="D79">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D79" s="1">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
         <v>10</v>
@@ -1696,12 +2011,16 @@
       <c r="C80" s="1">
         <v>78</v>
       </c>
-      <c r="D80">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D80" s="1">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
         <v>10</v>
@@ -1709,12 +2028,16 @@
       <c r="C81" s="1">
         <v>79</v>
       </c>
-      <c r="D81">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D81" s="1">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
         <v>10</v>
@@ -1722,12 +2045,16 @@
       <c r="C82" s="1">
         <v>80</v>
       </c>
-      <c r="D82">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D82" s="1">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
         <v>10</v>
@@ -1735,12 +2062,16 @@
       <c r="C83" s="1">
         <v>81</v>
       </c>
-      <c r="D83">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D83" s="1">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
         <v>10</v>
@@ -1748,12 +2079,16 @@
       <c r="C84" s="1">
         <v>82</v>
       </c>
-      <c r="D84">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D84" s="1">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
         <v>10</v>
@@ -1761,12 +2096,16 @@
       <c r="C85" s="1">
         <v>83</v>
       </c>
-      <c r="D85">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D85" s="1">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
         <v>10</v>
@@ -1774,12 +2113,16 @@
       <c r="C86" s="1">
         <v>84</v>
       </c>
-      <c r="D86">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D86" s="1">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
         <v>10</v>
@@ -1787,12 +2130,16 @@
       <c r="C87" s="1">
         <v>85</v>
       </c>
-      <c r="D87">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D87" s="1">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
         <v>10</v>
@@ -1800,12 +2147,16 @@
       <c r="C88" s="1">
         <v>86</v>
       </c>
-      <c r="D88">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D88" s="1">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
         <v>10</v>
@@ -1813,12 +2164,16 @@
       <c r="C89" s="1">
         <v>87</v>
       </c>
-      <c r="D89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D89" s="1">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
         <v>10</v>
@@ -1826,12 +2181,16 @@
       <c r="C90" s="1">
         <v>88</v>
       </c>
-      <c r="D90">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D90" s="1">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1" t="s">
         <v>10</v>
@@ -1839,12 +2198,16 @@
       <c r="C91" s="1">
         <v>89</v>
       </c>
-      <c r="D91">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D91" s="1">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1" t="s">
         <v>10</v>
@@ -1852,12 +2215,16 @@
       <c r="C92" s="1">
         <v>90</v>
       </c>
-      <c r="D92">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D92" s="1">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1" t="s">
         <v>10</v>
@@ -1865,12 +2232,16 @@
       <c r="C93" s="1">
         <v>91</v>
       </c>
-      <c r="D93">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D93" s="1">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1" t="s">
         <v>10</v>
@@ -1878,12 +2249,16 @@
       <c r="C94" s="1">
         <v>92</v>
       </c>
-      <c r="D94">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D94" s="1">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
         <v>10</v>
@@ -1891,12 +2266,16 @@
       <c r="C95" s="1">
         <v>93</v>
       </c>
-      <c r="D95">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D95" s="1">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
         <v>10</v>
@@ -1904,12 +2283,16 @@
       <c r="C96" s="1">
         <v>94</v>
       </c>
-      <c r="D96">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D96" s="1">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1" t="s">
         <v>10</v>
@@ -1917,12 +2300,16 @@
       <c r="C97" s="1">
         <v>95</v>
       </c>
-      <c r="D97">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D97" s="1">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1" t="s">
         <v>10</v>
@@ -1930,12 +2317,16 @@
       <c r="C98" s="1">
         <v>96</v>
       </c>
-      <c r="D98">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D98" s="1">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1" t="s">
         <v>10</v>
@@ -1943,12 +2334,16 @@
       <c r="C99" s="1">
         <v>97</v>
       </c>
-      <c r="D99">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D99" s="1">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1" t="s">
         <v>10</v>
@@ -1956,12 +2351,16 @@
       <c r="C100" s="1">
         <v>98</v>
       </c>
-      <c r="D100">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D100" s="1">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1" t="s">
         <v>10</v>
@@ -1969,12 +2368,16 @@
       <c r="C101" s="1">
         <v>99</v>
       </c>
-      <c r="D101">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D101" s="1">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1" t="s">
         <v>10</v>
@@ -1982,12 +2385,16 @@
       <c r="C102" s="1">
         <v>100</v>
       </c>
-      <c r="D102">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D102" s="1">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>1</v>
       </c>
@@ -1997,12 +2404,16 @@
       <c r="C103" s="2">
         <v>101</v>
       </c>
-      <c r="D103">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D103" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>1</v>
       </c>
@@ -2012,12 +2423,16 @@
       <c r="C104" s="2">
         <v>102</v>
       </c>
-      <c r="D104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D104" s="2">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>1</v>
       </c>
@@ -2027,12 +2442,16 @@
       <c r="C105" s="2">
         <v>103</v>
       </c>
-      <c r="D105">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D105" s="2">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>1</v>
       </c>
@@ -2042,12 +2461,16 @@
       <c r="C106" s="2">
         <v>104</v>
       </c>
-      <c r="D106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D106" s="2">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>6</v>
       </c>
@@ -2057,12 +2480,16 @@
       <c r="C107" s="3">
         <v>105</v>
       </c>
-      <c r="D107">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D107" s="3">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>6</v>
       </c>
@@ -2072,12 +2499,16 @@
       <c r="C108" s="3">
         <v>106</v>
       </c>
-      <c r="D108">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D108" s="3">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>6</v>
       </c>
@@ -2087,12 +2518,16 @@
       <c r="C109" s="3">
         <v>107</v>
       </c>
-      <c r="D109">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D109" s="3">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>6</v>
       </c>
@@ -2102,12 +2537,16 @@
       <c r="C110" s="3">
         <v>108</v>
       </c>
-      <c r="D110">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D110" s="3">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
         <v>10</v>
@@ -2115,12 +2554,16 @@
       <c r="C111" s="1">
         <v>109</v>
       </c>
-      <c r="D111">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D111" s="1">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1" t="s">
         <v>10</v>
@@ -2128,12 +2571,16 @@
       <c r="C112" s="1">
         <v>110</v>
       </c>
-      <c r="D112">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D112" s="1">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>1</v>
       </c>
@@ -2143,12 +2590,16 @@
       <c r="C113" s="2">
         <v>111</v>
       </c>
-      <c r="D113">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D113" s="2">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>1</v>
       </c>
@@ -2158,12 +2609,16 @@
       <c r="C114" s="2">
         <v>112</v>
       </c>
-      <c r="D114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D114" s="2">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>1</v>
       </c>
@@ -2173,12 +2628,16 @@
       <c r="C115" s="2">
         <v>113</v>
       </c>
-      <c r="D115">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D115" s="2">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>1</v>
       </c>
@@ -2188,12 +2647,16 @@
       <c r="C116" s="2">
         <v>114</v>
       </c>
-      <c r="D116">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D116" s="2">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>2</v>
       </c>
@@ -2203,12 +2666,16 @@
       <c r="C117" s="3">
         <v>115</v>
       </c>
-      <c r="D117">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D117" s="3">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>2</v>
       </c>
@@ -2218,12 +2685,16 @@
       <c r="C118" s="3">
         <v>116</v>
       </c>
-      <c r="D118">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D118" s="3">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>2</v>
       </c>
@@ -2233,12 +2704,16 @@
       <c r="C119" s="3">
         <v>117</v>
       </c>
-      <c r="D119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D119" s="3">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>4</v>
       </c>
@@ -2248,12 +2723,16 @@
       <c r="C120" s="3">
         <v>118</v>
       </c>
-      <c r="D120">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D120" s="3">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>4</v>
       </c>
@@ -2263,12 +2742,16 @@
       <c r="C121" s="3">
         <v>119</v>
       </c>
-      <c r="D121">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D121" s="3">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>4</v>
       </c>
@@ -2278,12 +2761,16 @@
       <c r="C122" s="3">
         <v>120</v>
       </c>
-      <c r="D122">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D122" s="3">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>4</v>
       </c>
@@ -2293,12 +2780,16 @@
       <c r="C123" s="3">
         <v>121</v>
       </c>
-      <c r="D123">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D123" s="3">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>4</v>
       </c>
@@ -2308,12 +2799,16 @@
       <c r="C124" s="3">
         <v>122</v>
       </c>
-      <c r="D124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D124" s="3">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>4</v>
       </c>
@@ -2323,12 +2818,16 @@
       <c r="C125" s="3">
         <v>123</v>
       </c>
-      <c r="D125">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D125" s="3">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>6</v>
       </c>
@@ -2338,12 +2837,16 @@
       <c r="C126" s="3">
         <v>124</v>
       </c>
-      <c r="D126">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D126" s="3">
+        <f t="shared" si="2"/>
+        <v>123</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>6</v>
       </c>
@@ -2353,12 +2856,16 @@
       <c r="C127" s="3">
         <v>125</v>
       </c>
-      <c r="D127">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D127" s="3">
+        <f t="shared" si="2"/>
+        <v>124</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>6</v>
       </c>
@@ -2368,12 +2875,16 @@
       <c r="C128" s="3">
         <v>126</v>
       </c>
-      <c r="D128">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D128" s="3">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>6</v>
       </c>
@@ -2383,12 +2894,16 @@
       <c r="C129" s="3">
         <v>127</v>
       </c>
-      <c r="D129">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D129" s="3">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>6</v>
       </c>
@@ -2398,12 +2913,16 @@
       <c r="C130" s="3">
         <v>128</v>
       </c>
-      <c r="D130">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D130" s="3">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>6</v>
       </c>
@@ -2413,12 +2932,16 @@
       <c r="C131" s="3">
         <v>129</v>
       </c>
-      <c r="D131">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D131" s="3">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>6</v>
       </c>
@@ -2428,8 +2951,12 @@
       <c r="C132" s="3">
         <v>130</v>
       </c>
-      <c r="D132">
-        <f t="shared" ref="D132" si="2">IF(B132="blank",1,0)</f>
+      <c r="D132" s="3">
+        <f t="shared" ref="D132" si="4">C132-1</f>
+        <v>129</v>
+      </c>
+      <c r="E132">
+        <f t="shared" ref="E132" si="5">IF(B132="blank",1,0)</f>
         <v>0</v>
       </c>
     </row>
